--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/72/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/72/FD_Curve.xlsx
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.634</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5634</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>6.604010000000001</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>6604.01</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>7.2968</v>
+        <v>7.86267</v>
       </c>
       <c r="C9" t="n">
-        <v>7296.8</v>
+        <v>7862.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247936</v>
+        <v>0.247923</v>
       </c>
       <c r="B10" t="n">
-        <v>8.09553</v>
+        <v>8.920579999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>8095.53</v>
+        <v>8920.58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278861</v>
+        <v>0.278848</v>
       </c>
       <c r="B11" t="n">
-        <v>8.798719999999999</v>
+        <v>10.0216</v>
       </c>
       <c r="C11" t="n">
-        <v>8798.719999999999</v>
+        <v>10021.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309804</v>
+        <v>0.309778</v>
       </c>
       <c r="B12" t="n">
-        <v>9.406610000000001</v>
+        <v>11.1524</v>
       </c>
       <c r="C12" t="n">
-        <v>9406.610000000001</v>
+        <v>11152.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340729</v>
+        <v>0.340703</v>
       </c>
       <c r="B13" t="n">
-        <v>9.92877</v>
+        <v>11.8321</v>
       </c>
       <c r="C13" t="n">
-        <v>9928.77</v>
+        <v>11832.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371655</v>
+        <v>0.371628</v>
       </c>
       <c r="B14" t="n">
-        <v>10.4101</v>
+        <v>12.401</v>
       </c>
       <c r="C14" t="n">
-        <v>10410.1</v>
+        <v>12401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.40258</v>
+        <v>0.402553</v>
       </c>
       <c r="B15" t="n">
-        <v>10.7905</v>
+        <v>12.9846</v>
       </c>
       <c r="C15" t="n">
-        <v>10790.5</v>
+        <v>12984.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433505</v>
+        <v>0.433478</v>
       </c>
       <c r="B16" t="n">
-        <v>11.0754</v>
+        <v>13.3678</v>
       </c>
       <c r="C16" t="n">
-        <v>11075.4</v>
+        <v>13367.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.46443</v>
+        <v>0.464403</v>
       </c>
       <c r="B17" t="n">
-        <v>11.2988</v>
+        <v>13.7931</v>
       </c>
       <c r="C17" t="n">
-        <v>11298.8</v>
+        <v>13793.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495355</v>
+        <v>0.495328</v>
       </c>
       <c r="B18" t="n">
-        <v>11.3536</v>
+        <v>14.1582</v>
       </c>
       <c r="C18" t="n">
-        <v>11353.6</v>
+        <v>14158.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.52628</v>
+        <v>0.526253</v>
       </c>
       <c r="B19" t="n">
-        <v>11.3379</v>
+        <v>14.4703</v>
       </c>
       <c r="C19" t="n">
-        <v>11337.9</v>
+        <v>14470.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5572</v>
+        <v>0.557178</v>
       </c>
       <c r="B20" t="n">
-        <v>11.2967</v>
+        <v>14.733</v>
       </c>
       <c r="C20" t="n">
-        <v>11296.7</v>
+        <v>14733</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588125</v>
+        <v>0.588103</v>
       </c>
       <c r="B21" t="n">
-        <v>11.2512</v>
+        <v>14.9541</v>
       </c>
       <c r="C21" t="n">
-        <v>11251.2</v>
+        <v>14954.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619167</v>
+        <v>0.6191449999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>11.2026</v>
+        <v>15.196</v>
       </c>
       <c r="C22" t="n">
-        <v>11202.6</v>
+        <v>15196</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650344</v>
+        <v>0.650318</v>
       </c>
       <c r="B23" t="n">
-        <v>11.1506</v>
+        <v>15.3615</v>
       </c>
       <c r="C23" t="n">
-        <v>11150.6</v>
+        <v>15361.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681517</v>
+        <v>0.681495</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0955</v>
+        <v>15.5329</v>
       </c>
       <c r="C24" t="n">
-        <v>11095.5</v>
+        <v>15532.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712689</v>
+        <v>0.7126670000000001</v>
       </c>
       <c r="B25" t="n">
-        <v>11.0309</v>
+        <v>15.6509</v>
       </c>
       <c r="C25" t="n">
-        <v>11030.9</v>
+        <v>15650.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743866</v>
+        <v>0.7438399999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>10.9666</v>
+        <v>15.7443</v>
       </c>
       <c r="C26" t="n">
-        <v>10966.6</v>
+        <v>15744.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775039</v>
+        <v>0.775017</v>
       </c>
       <c r="B27" t="n">
-        <v>10.8912</v>
+        <v>15.8163</v>
       </c>
       <c r="C27" t="n">
-        <v>10891.2</v>
+        <v>15816.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806216</v>
+        <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>10.8152</v>
+        <v>15.8671</v>
       </c>
       <c r="C28" t="n">
-        <v>10815.2</v>
+        <v>15867.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837389</v>
+        <v>0.8373620000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>10.7305</v>
+        <v>15.8932</v>
       </c>
       <c r="C29" t="n">
-        <v>10730.5</v>
+        <v>15893.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868561</v>
+        <v>0.8685389999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>10.6438</v>
+        <v>15.8979</v>
       </c>
       <c r="C30" t="n">
-        <v>10643.8</v>
+        <v>15897.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899738</v>
+        <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>10.5504</v>
+        <v>15.8886</v>
       </c>
       <c r="C31" t="n">
-        <v>10550.4</v>
+        <v>15888.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930911</v>
+        <v>0.930889</v>
       </c>
       <c r="B32" t="n">
-        <v>10.451</v>
+        <v>15.8678</v>
       </c>
       <c r="C32" t="n">
-        <v>10451</v>
+        <v>15867.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962083</v>
+        <v>0.9620610000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>10.349</v>
+        <v>15.8389</v>
       </c>
       <c r="C33" t="n">
-        <v>10349</v>
+        <v>15838.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99326</v>
+        <v>0.993234</v>
       </c>
       <c r="B34" t="n">
-        <v>10.2377</v>
+        <v>15.8032</v>
       </c>
       <c r="C34" t="n">
-        <v>10237.7</v>
+        <v>15803.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02429</v>
+        <v>1.02426</v>
       </c>
       <c r="B35" t="n">
-        <v>10.1263</v>
+        <v>15.7623</v>
       </c>
       <c r="C35" t="n">
-        <v>10126.3</v>
+        <v>15762.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05525</v>
+        <v>1.05522</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0042</v>
+        <v>15.7172</v>
       </c>
       <c r="C36" t="n">
-        <v>10004.2</v>
+        <v>15717.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08622</v>
+        <v>1.08619</v>
       </c>
       <c r="B37" t="n">
-        <v>9.88148</v>
+        <v>15.668</v>
       </c>
       <c r="C37" t="n">
-        <v>9881.48</v>
+        <v>15668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11719</v>
+        <v>1.11716</v>
       </c>
       <c r="B38" t="n">
-        <v>9.750350000000001</v>
+        <v>15.6149</v>
       </c>
       <c r="C38" t="n">
-        <v>9750.35</v>
+        <v>15614.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14816</v>
+        <v>1.14813</v>
       </c>
       <c r="B39" t="n">
-        <v>9.61589</v>
+        <v>15.5577</v>
       </c>
       <c r="C39" t="n">
-        <v>9615.889999999999</v>
+        <v>15557.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17912</v>
+        <v>1.17909</v>
       </c>
       <c r="B40" t="n">
-        <v>6.15812</v>
+        <v>15.4971</v>
       </c>
       <c r="C40" t="n">
-        <v>6158.12</v>
+        <v>15497.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.20986</v>
+        <v>1.21006</v>
       </c>
       <c r="B41" t="n">
-        <v>5.87324</v>
+        <v>15.433</v>
       </c>
       <c r="C41" t="n">
-        <v>5873.24</v>
+        <v>15433</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.2406</v>
+        <v>1.24103</v>
       </c>
       <c r="B42" t="n">
-        <v>8.77013</v>
+        <v>15.3648</v>
       </c>
       <c r="C42" t="n">
-        <v>8770.129999999999</v>
+        <v>15364.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27178</v>
+        <v>1.272</v>
       </c>
       <c r="B43" t="n">
-        <v>9.55617</v>
+        <v>15.2918</v>
       </c>
       <c r="C43" t="n">
-        <v>9556.17</v>
+        <v>15291.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30288</v>
+        <v>1.30297</v>
       </c>
       <c r="B44" t="n">
-        <v>8.920770000000001</v>
+        <v>15.2151</v>
       </c>
       <c r="C44" t="n">
-        <v>8920.77</v>
+        <v>15215.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33358</v>
+        <v>1.33393</v>
       </c>
       <c r="B45" t="n">
-        <v>8.87782</v>
+        <v>15.1322</v>
       </c>
       <c r="C45" t="n">
-        <v>8877.82</v>
+        <v>15132.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36479</v>
+        <v>1.3649</v>
       </c>
       <c r="B46" t="n">
-        <v>8.909469999999999</v>
+        <v>15.0419</v>
       </c>
       <c r="C46" t="n">
-        <v>8909.469999999999</v>
+        <v>15041.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39569</v>
+        <v>1.39587</v>
       </c>
       <c r="B47" t="n">
-        <v>8.705350000000001</v>
+        <v>14.9444</v>
       </c>
       <c r="C47" t="n">
-        <v>8705.35</v>
+        <v>14944.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42667</v>
+        <v>1.42683</v>
       </c>
       <c r="B48" t="n">
-        <v>8.50061</v>
+        <v>14.8382</v>
       </c>
       <c r="C48" t="n">
-        <v>8500.610000000001</v>
+        <v>14838.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45785</v>
+        <v>1.45781</v>
       </c>
       <c r="B49" t="n">
-        <v>8.317110000000001</v>
+        <v>14.7244</v>
       </c>
       <c r="C49" t="n">
-        <v>8317.110000000001</v>
+        <v>14724.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48889</v>
+        <v>1.48877</v>
       </c>
       <c r="B50" t="n">
-        <v>8.18491</v>
+        <v>14.6007</v>
       </c>
       <c r="C50" t="n">
-        <v>8184.91</v>
+        <v>14600.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51995</v>
+        <v>1.51974</v>
       </c>
       <c r="B51" t="n">
-        <v>7.90436</v>
+        <v>14.4686</v>
       </c>
       <c r="C51" t="n">
-        <v>7904.36</v>
+        <v>14468.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.551</v>
+        <v>1.55071</v>
       </c>
       <c r="B52" t="n">
-        <v>7.739380000000001</v>
+        <v>14.3275</v>
       </c>
       <c r="C52" t="n">
-        <v>7739.38</v>
+        <v>14327.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58169</v>
+        <v>1.5816</v>
       </c>
       <c r="B53" t="n">
-        <v>7.567270000000001</v>
+        <v>14.1763</v>
       </c>
       <c r="C53" t="n">
-        <v>7567.27</v>
+        <v>14176.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61306</v>
+        <v>1.6127</v>
       </c>
       <c r="B54" t="n">
-        <v>7.50441</v>
+        <v>14.0136</v>
       </c>
       <c r="C54" t="n">
-        <v>7504.41</v>
+        <v>14013.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64382</v>
+        <v>1.64367</v>
       </c>
       <c r="B55" t="n">
-        <v>7.27829</v>
+        <v>13.8411</v>
       </c>
       <c r="C55" t="n">
-        <v>7278.29</v>
+        <v>13841.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67509</v>
+        <v>1.67464</v>
       </c>
       <c r="B56" t="n">
-        <v>7.05039</v>
+        <v>13.6585</v>
       </c>
       <c r="C56" t="n">
-        <v>7050.39</v>
+        <v>13658.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70589</v>
+        <v>1.70572</v>
       </c>
       <c r="B57" t="n">
-        <v>6.89221</v>
+        <v>13.4635</v>
       </c>
       <c r="C57" t="n">
-        <v>6892.21</v>
+        <v>13463.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73703</v>
+        <v>1.73654</v>
       </c>
       <c r="B58" t="n">
-        <v>6.79392</v>
+        <v>13.2613</v>
       </c>
       <c r="C58" t="n">
-        <v>6793.92</v>
+        <v>13261.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76806</v>
+        <v>1.7677</v>
       </c>
       <c r="B59" t="n">
-        <v>6.70533</v>
+        <v>13.0453</v>
       </c>
       <c r="C59" t="n">
-        <v>6705.33</v>
+        <v>13045.3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.7989</v>
+        <v>1.79868</v>
       </c>
       <c r="B60" t="n">
-        <v>6.51292</v>
+        <v>12.822</v>
       </c>
       <c r="C60" t="n">
-        <v>6512.92</v>
+        <v>12822</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83028</v>
+        <v>1.82962</v>
       </c>
       <c r="B61" t="n">
-        <v>6.388680000000001</v>
+        <v>12.5894</v>
       </c>
       <c r="C61" t="n">
-        <v>6388.68</v>
+        <v>12589.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86109</v>
+        <v>1.86074</v>
       </c>
       <c r="B62" t="n">
-        <v>6.24579</v>
+        <v>12.3484</v>
       </c>
       <c r="C62" t="n">
-        <v>6245.79</v>
+        <v>12348.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89203</v>
+        <v>1.8915</v>
       </c>
       <c r="B63" t="n">
-        <v>6.191020000000001</v>
+        <v>12.1027</v>
       </c>
       <c r="C63" t="n">
-        <v>6191.02</v>
+        <v>12102.7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92316</v>
+        <v>1.92274</v>
       </c>
       <c r="B64" t="n">
-        <v>6.047149999999999</v>
+        <v>11.8464</v>
       </c>
       <c r="C64" t="n">
-        <v>6047.15</v>
+        <v>11846.4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95376</v>
+        <v>1.95362</v>
       </c>
       <c r="B65" t="n">
-        <v>5.95836</v>
+        <v>11.5904</v>
       </c>
       <c r="C65" t="n">
-        <v>5958.36</v>
+        <v>11590.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98481</v>
+        <v>1.98475</v>
       </c>
       <c r="B66" t="n">
-        <v>5.84267</v>
+        <v>11.3296</v>
       </c>
       <c r="C66" t="n">
-        <v>5842.67</v>
+        <v>11329.6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0162</v>
+        <v>2.01563</v>
       </c>
       <c r="B67" t="n">
-        <v>5.786840000000001</v>
+        <v>11.0705</v>
       </c>
       <c r="C67" t="n">
-        <v>5786.84</v>
+        <v>11070.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04695</v>
+        <v>2.04689</v>
       </c>
       <c r="B68" t="n">
-        <v>5.70707</v>
+        <v>10.8086</v>
       </c>
       <c r="C68" t="n">
-        <v>5707.07</v>
+        <v>10808.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07806</v>
+        <v>2.07765</v>
       </c>
       <c r="B69" t="n">
-        <v>5.64415</v>
+        <v>10.5497</v>
       </c>
       <c r="C69" t="n">
-        <v>5644.15</v>
+        <v>10549.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10914</v>
+        <v>2.10879</v>
       </c>
       <c r="B70" t="n">
-        <v>5.533810000000001</v>
+        <v>10.2901</v>
       </c>
       <c r="C70" t="n">
-        <v>5533.81</v>
+        <v>10290.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14022</v>
+        <v>2.13966</v>
       </c>
       <c r="B71" t="n">
-        <v>5.48494</v>
+        <v>10.037</v>
       </c>
       <c r="C71" t="n">
-        <v>5484.94</v>
+        <v>10037</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17128</v>
+        <v>2.17078</v>
       </c>
       <c r="B72" t="n">
-        <v>5.43098</v>
+        <v>9.7859</v>
       </c>
       <c r="C72" t="n">
-        <v>5430.98</v>
+        <v>9785.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20261</v>
+        <v>2.20153</v>
       </c>
       <c r="B73" t="n">
-        <v>5.39412</v>
+        <v>9.54914</v>
       </c>
       <c r="C73" t="n">
-        <v>5394.12</v>
+        <v>9549.139999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23286</v>
+        <v>2.23279</v>
       </c>
       <c r="B74" t="n">
-        <v>5.41258</v>
+        <v>9.31556</v>
       </c>
       <c r="C74" t="n">
-        <v>5412.58</v>
+        <v>9315.559999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26312</v>
+        <v>2.26378</v>
       </c>
       <c r="B75" t="n">
-        <v>5.43984</v>
+        <v>9.097659999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>5439.84</v>
+        <v>9097.66</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29487</v>
+        <v>2.29467</v>
       </c>
       <c r="B76" t="n">
-        <v>5.42424</v>
+        <v>8.88775</v>
       </c>
       <c r="C76" t="n">
-        <v>5424.24</v>
+        <v>8887.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32743</v>
+        <v>2.32596</v>
       </c>
       <c r="B77" t="n">
-        <v>5.38545</v>
+        <v>8.68844</v>
       </c>
       <c r="C77" t="n">
-        <v>5385.45</v>
+        <v>8688.440000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35818</v>
+        <v>2.35627</v>
       </c>
       <c r="B78" t="n">
-        <v>5.36519</v>
+        <v>8.50381</v>
       </c>
       <c r="C78" t="n">
-        <v>5365.19</v>
+        <v>8503.809999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3889</v>
+        <v>2.38786</v>
       </c>
       <c r="B79" t="n">
-        <v>5.33015</v>
+        <v>8.322240000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>5330.15</v>
+        <v>8322.24</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41962</v>
+        <v>2.41888</v>
       </c>
       <c r="B80" t="n">
-        <v>5.320510000000001</v>
+        <v>8.154109999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>5320.51</v>
+        <v>8154.11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45034</v>
+        <v>2.45064</v>
       </c>
       <c r="B81" t="n">
-        <v>5.30121</v>
+        <v>7.98961</v>
       </c>
       <c r="C81" t="n">
-        <v>5301.21</v>
+        <v>7989.61</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48106</v>
+        <v>2.48264</v>
       </c>
       <c r="B82" t="n">
-        <v>5.28821</v>
+        <v>7.83579</v>
       </c>
       <c r="C82" t="n">
-        <v>5288.21</v>
+        <v>7835.79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51178</v>
+        <v>2.51309</v>
       </c>
       <c r="B83" t="n">
-        <v>5.210199999999999</v>
+        <v>7.69212</v>
       </c>
       <c r="C83" t="n">
-        <v>5210.2</v>
+        <v>7692.12</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54104</v>
+        <v>2.54349</v>
       </c>
       <c r="B84" t="n">
-        <v>5.1763</v>
+        <v>7.55953</v>
       </c>
       <c r="C84" t="n">
-        <v>5176.3</v>
+        <v>7559.53</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.5692</v>
+        <v>2.57352</v>
       </c>
       <c r="B85" t="n">
-        <v>5.20147</v>
+        <v>7.43541</v>
       </c>
       <c r="C85" t="n">
-        <v>5201.47</v>
+        <v>7435.41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.59736</v>
+        <v>2.6032</v>
       </c>
       <c r="B86" t="n">
-        <v>5.136340000000001</v>
+        <v>7.31588</v>
       </c>
       <c r="C86" t="n">
-        <v>5136.34</v>
+        <v>7315.88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.62552</v>
+        <v>2.63561</v>
       </c>
       <c r="B87" t="n">
-        <v>5.105510000000001</v>
+        <v>7.20213</v>
       </c>
       <c r="C87" t="n">
-        <v>5105.51</v>
+        <v>7202.13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.65368</v>
+        <v>2.66761</v>
       </c>
       <c r="B88" t="n">
-        <v>5.09553</v>
+        <v>7.09292</v>
       </c>
       <c r="C88" t="n">
-        <v>5095.53</v>
+        <v>7092.92</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.68541</v>
+        <v>2.69961</v>
       </c>
       <c r="B89" t="n">
-        <v>5.06478</v>
+        <v>6.98565</v>
       </c>
       <c r="C89" t="n">
-        <v>5064.78</v>
+        <v>6985.65</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7206</v>
+        <v>2.73161</v>
       </c>
       <c r="B90" t="n">
-        <v>5.00116</v>
+        <v>6.882090000000001</v>
       </c>
       <c r="C90" t="n">
-        <v>5001.16</v>
+        <v>6882.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7558</v>
+        <v>2.76361</v>
       </c>
       <c r="B91" t="n">
-        <v>4.99736</v>
+        <v>6.782649999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>4997.36</v>
+        <v>6782.65</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78944</v>
+        <v>2.79561</v>
       </c>
       <c r="B92" t="n">
-        <v>4.96284</v>
+        <v>6.68662</v>
       </c>
       <c r="C92" t="n">
-        <v>4962.84</v>
+        <v>6686.62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82145</v>
+        <v>2.82761</v>
       </c>
       <c r="B93" t="n">
-        <v>4.89248</v>
+        <v>6.595560000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>4892.48</v>
+        <v>6595.56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85345</v>
+        <v>2.85961</v>
       </c>
       <c r="B94" t="n">
-        <v>4.88752</v>
+        <v>6.50753</v>
       </c>
       <c r="C94" t="n">
-        <v>4887.52</v>
+        <v>6507.53</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88545</v>
+        <v>2.89223</v>
       </c>
       <c r="B95" t="n">
-        <v>4.87591</v>
+        <v>6.43019</v>
       </c>
       <c r="C95" t="n">
-        <v>4875.91</v>
+        <v>6430.19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91745</v>
+        <v>2.92551</v>
       </c>
       <c r="B96" t="n">
-        <v>4.8324</v>
+        <v>6.353899999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>4832.4</v>
+        <v>6353.9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94945</v>
+        <v>2.95879</v>
       </c>
       <c r="B97" t="n">
-        <v>4.80279</v>
+        <v>6.28026</v>
       </c>
       <c r="C97" t="n">
-        <v>4802.79</v>
+        <v>6280.26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98145</v>
+        <v>2.99102</v>
       </c>
       <c r="B98" t="n">
-        <v>4.76446</v>
+        <v>6.21391</v>
       </c>
       <c r="C98" t="n">
-        <v>4764.46</v>
+        <v>6213.91</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01345</v>
+        <v>3.02175</v>
       </c>
       <c r="B99" t="n">
-        <v>4.732250000000001</v>
+        <v>6.16185</v>
       </c>
       <c r="C99" t="n">
-        <v>4732.25</v>
+        <v>6161.85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04544</v>
+        <v>3.05246</v>
       </c>
       <c r="B100" t="n">
-        <v>4.71037</v>
+        <v>6.1058</v>
       </c>
       <c r="C100" t="n">
-        <v>4710.37</v>
+        <v>6105.8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.0761</v>
+        <v>3.08236</v>
       </c>
       <c r="B101" t="n">
-        <v>4.696260000000001</v>
+        <v>6.16161</v>
       </c>
       <c r="C101" t="n">
-        <v>4696.26</v>
+        <v>6161.61</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.1049</v>
+        <v>3.11052</v>
       </c>
       <c r="B102" t="n">
-        <v>4.663390000000001</v>
+        <v>6.06516</v>
       </c>
       <c r="C102" t="n">
-        <v>4663.39</v>
+        <v>6065.16</v>
       </c>
     </row>
   </sheetData>
